--- a/dtpu_configurations/only_integer16/30mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_7x7/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.013265945017337799</v>
+        <v>0.013704583048820496</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005560136865824461</v>
+        <v>0.006486182566732168</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004276454448699951</v>
+        <v>0.00432577496394515</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0034997090697288513</v>
+        <v>0.004177039489150047</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>8.432269532931969E-5</v>
+        <v>1.5976434224285185E-4</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0013536218320950866</v>
@@ -196,13 +196,13 @@
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12674568593502045</v>
+        <v>0.12727367877960205</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.412969946861267</v>
+        <v>1.415645718574524</v>
       </c>
     </row>
   </sheetData>
